--- a/Data and Software/Overview_FullData_For_4_Academic_Years - 30 October  2023 - 2020.xlsx
+++ b/Data and Software/Overview_FullData_For_4_Academic_Years - 30 October  2023 - 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keneo\Downloads\Data and Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A0CDB5-1BCF-4834-8C6F-A7A4A5DC5D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F7669F-2CB6-47D0-ADAB-D1E439EE7236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="54">
   <si>
     <t>Overview</t>
   </si>
@@ -626,105 +626,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -742,6 +643,105 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,147 +1166,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="51" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="38" t="s">
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="40"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="48"/>
       <c r="AV1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="51" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="51" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="51" t="s">
+      <c r="M2" s="50"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="52" t="s">
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="51" t="s">
+      <c r="U2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="39"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="51" t="s">
+      <c r="V2" s="50"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="51" t="s">
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="52" t="s">
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="53" t="s">
+      <c r="AD2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="38" t="s">
+      <c r="AE2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="38" t="s">
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="38" t="s">
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="38" t="s">
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="41" t="s">
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="57" t="s">
         <v>12</v>
       </c>
       <c r="AV2" s="5" t="s">
@@ -1368,8 +1368,8 @@
       <c r="R3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="56"/>
       <c r="U3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1394,8 +1394,8 @@
       <c r="AB3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="56"/>
       <c r="AE3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1444,13 +1444,13 @@
       <c r="AT3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AU3" s="42"/>
+      <c r="AU3" s="54"/>
       <c r="AV3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
@@ -1740,7 +1740,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="32" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
@@ -1884,7 +1884,7 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
@@ -2028,7 +2028,7 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="32" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
@@ -2172,7 +2172,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
@@ -2316,7 +2316,7 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
@@ -2460,7 +2460,7 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A11" s="44"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
@@ -2604,7 +2604,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="32" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
@@ -2892,11 +2892,11 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="17">
         <v>1339</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -3180,7 +3180,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="32" x14ac:dyDescent="0.35">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
@@ -3324,7 +3324,7 @@
       </c>
     </row>
     <row r="17" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
@@ -3468,11 +3468,11 @@
       </c>
     </row>
     <row r="18" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="17">
         <v>21</v>
       </c>
@@ -3610,11 +3610,11 @@
       </c>
     </row>
     <row r="19" spans="1:48" ht="16" x14ac:dyDescent="0.35">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="20">
         <v>1360</v>
       </c>
@@ -3754,15 +3754,6 @@
     <row r="20" spans="1:48" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU2:AU3"/>
     <mergeCell ref="A4:A14"/>
@@ -3779,6 +3770,15 @@
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AH2"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3838,150 +3838,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="58" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="38" t="s">
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="40"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="48"/>
     </row>
     <row r="2" spans="1:49" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="51" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="51" t="s">
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="51" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="59" t="s">
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="U2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="51" t="s">
+      <c r="V2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="51" t="s">
+      <c r="W2" s="50"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="51" t="s">
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="59" t="s">
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="53" t="s">
+      <c r="AE2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AF2" s="38" t="s">
+      <c r="AF2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="38" t="s">
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="38" t="s">
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="38" t="s">
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="61" t="s">
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AW2" s="56" t="s">
+      <c r="AW2" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4043,8 +4043,8 @@
       <c r="S3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="60"/>
-      <c r="U3" s="54"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="56"/>
       <c r="V3" s="9" t="s">
         <v>16</v>
       </c>
@@ -4069,8 +4069,8 @@
       <c r="AC3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="54"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="56"/>
       <c r="AF3" s="9" t="s">
         <v>16</v>
       </c>
@@ -4119,17 +4119,17 @@
       <c r="AU3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="54"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="56"/>
     </row>
     <row r="4" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -4272,9 +4272,9 @@
       </c>
     </row>
     <row r="5" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="11" t="s">
         <v>30</v>
       </c>
@@ -4415,9 +4415,9 @@
       </c>
     </row>
     <row r="6" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
@@ -4558,9 +4558,9 @@
       </c>
     </row>
     <row r="7" spans="1:49" ht="32" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="43" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="44" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -4703,9 +4703,9 @@
       </c>
     </row>
     <row r="8" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
@@ -4846,9 +4846,9 @@
       </c>
     </row>
     <row r="9" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="43" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="44" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -4991,9 +4991,9 @@
       </c>
     </row>
     <row r="10" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="11" t="s">
         <v>29</v>
       </c>
@@ -5134,9 +5134,9 @@
       </c>
     </row>
     <row r="11" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="11" t="s">
         <v>30</v>
       </c>
@@ -5277,9 +5277,9 @@
       </c>
     </row>
     <row r="12" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
@@ -5420,9 +5420,9 @@
       </c>
     </row>
     <row r="13" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="11" t="s">
         <v>18</v>
       </c>
@@ -5563,9 +5563,9 @@
       </c>
     </row>
     <row r="14" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="43" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -5708,9 +5708,9 @@
       </c>
     </row>
     <row r="15" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="11" t="s">
         <v>28</v>
       </c>
@@ -5851,9 +5851,9 @@
       </c>
     </row>
     <row r="16" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="11" t="s">
         <v>30</v>
       </c>
@@ -5994,9 +5994,9 @@
       </c>
     </row>
     <row r="17" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="11" t="s">
         <v>18</v>
       </c>
@@ -6137,9 +6137,9 @@
       </c>
     </row>
     <row r="18" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="43" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="44" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -6282,9 +6282,9 @@
       </c>
     </row>
     <row r="19" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
@@ -6425,9 +6425,9 @@
       </c>
     </row>
     <row r="20" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="11" t="s">
         <v>18</v>
       </c>
@@ -6568,9 +6568,9 @@
       </c>
     </row>
     <row r="21" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="43" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="44" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -6713,9 +6713,9 @@
       </c>
     </row>
     <row r="22" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="11" t="s">
         <v>28</v>
       </c>
@@ -6856,9 +6856,9 @@
       </c>
     </row>
     <row r="23" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="11" t="s">
         <v>29</v>
       </c>
@@ -6999,9 +6999,9 @@
       </c>
     </row>
     <row r="24" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="11" t="s">
         <v>30</v>
       </c>
@@ -7142,9 +7142,9 @@
       </c>
     </row>
     <row r="25" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="11" t="s">
         <v>18</v>
       </c>
@@ -7285,9 +7285,9 @@
       </c>
     </row>
     <row r="26" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="43" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="44" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -7430,9 +7430,9 @@
       </c>
     </row>
     <row r="27" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="11" t="s">
         <v>28</v>
       </c>
@@ -7573,9 +7573,9 @@
       </c>
     </row>
     <row r="28" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="11" t="s">
         <v>29</v>
       </c>
@@ -7716,9 +7716,9 @@
       </c>
     </row>
     <row r="29" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="11" t="s">
         <v>18</v>
       </c>
@@ -7859,9 +7859,9 @@
       </c>
     </row>
     <row r="30" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="43" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="44" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="11" t="s">
@@ -8004,9 +8004,9 @@
       </c>
     </row>
     <row r="31" spans="1:49" ht="32" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="11" t="s">
         <v>26</v>
       </c>
@@ -8147,9 +8147,9 @@
       </c>
     </row>
     <row r="32" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="11" t="s">
         <v>27</v>
       </c>
@@ -8290,9 +8290,9 @@
       </c>
     </row>
     <row r="33" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="11" t="s">
         <v>28</v>
       </c>
@@ -8433,9 +8433,9 @@
       </c>
     </row>
     <row r="34" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="11" t="s">
         <v>29</v>
       </c>
@@ -8576,9 +8576,9 @@
       </c>
     </row>
     <row r="35" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="11" t="s">
         <v>30</v>
       </c>
@@ -8719,9 +8719,9 @@
       </c>
     </row>
     <row r="36" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="11" t="s">
         <v>31</v>
       </c>
@@ -8862,9 +8862,9 @@
       </c>
     </row>
     <row r="37" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="11" t="s">
         <v>18</v>
       </c>
@@ -9005,9 +9005,9 @@
       </c>
     </row>
     <row r="38" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="43" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="11" t="s">
@@ -9150,9 +9150,9 @@
       </c>
     </row>
     <row r="39" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="11" t="s">
         <v>18</v>
       </c>
@@ -9293,9 +9293,9 @@
       </c>
     </row>
     <row r="40" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="43" t="s">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="44" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="11" t="s">
@@ -9438,9 +9438,9 @@
       </c>
     </row>
     <row r="41" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="11" t="s">
         <v>27</v>
       </c>
@@ -9581,9 +9581,9 @@
       </c>
     </row>
     <row r="42" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="11" t="s">
         <v>28</v>
       </c>
@@ -9724,9 +9724,9 @@
       </c>
     </row>
     <row r="43" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="11" t="s">
         <v>29</v>
       </c>
@@ -9867,9 +9867,9 @@
       </c>
     </row>
     <row r="44" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="11" t="s">
         <v>30</v>
       </c>
@@ -10010,9 +10010,9 @@
       </c>
     </row>
     <row r="45" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="45"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="11" t="s">
         <v>18</v>
       </c>
@@ -10153,9 +10153,9 @@
       </c>
     </row>
     <row r="46" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="43" t="s">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="44" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -10298,9 +10298,9 @@
       </c>
     </row>
     <row r="47" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="11" t="s">
         <v>28</v>
       </c>
@@ -10441,9 +10441,9 @@
       </c>
     </row>
     <row r="48" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="11" t="s">
         <v>29</v>
       </c>
@@ -10584,9 +10584,9 @@
       </c>
     </row>
     <row r="49" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="45"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="11" t="s">
         <v>18</v>
       </c>
@@ -10727,9 +10727,9 @@
       </c>
     </row>
     <row r="50" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="43" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="44" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="11" t="s">
@@ -10872,9 +10872,9 @@
       </c>
     </row>
     <row r="51" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="11" t="s">
         <v>29</v>
       </c>
@@ -11015,9 +11015,9 @@
       </c>
     </row>
     <row r="52" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="11" t="s">
         <v>30</v>
       </c>
@@ -11158,9 +11158,9 @@
       </c>
     </row>
     <row r="53" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="45"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="11" t="s">
         <v>18</v>
       </c>
@@ -11301,9 +11301,9 @@
       </c>
     </row>
     <row r="54" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="43" t="s">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="44" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="11" t="s">
@@ -11446,9 +11446,9 @@
       </c>
     </row>
     <row r="55" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="11" t="s">
         <v>28</v>
       </c>
@@ -11589,9 +11589,9 @@
       </c>
     </row>
     <row r="56" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="11" t="s">
         <v>29</v>
       </c>
@@ -11732,9 +11732,9 @@
       </c>
     </row>
     <row r="57" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="45"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="11" t="s">
         <v>18</v>
       </c>
@@ -11875,9 +11875,9 @@
       </c>
     </row>
     <row r="58" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="43" t="s">
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -12020,9 +12020,9 @@
       </c>
     </row>
     <row r="59" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="11" t="s">
         <v>28</v>
       </c>
@@ -12163,9 +12163,9 @@
       </c>
     </row>
     <row r="60" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="11" t="s">
         <v>29</v>
       </c>
@@ -12306,9 +12306,9 @@
       </c>
     </row>
     <row r="61" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="11" t="s">
         <v>30</v>
       </c>
@@ -12449,9 +12449,9 @@
       </c>
     </row>
     <row r="62" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="45"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
@@ -12592,9 +12592,9 @@
       </c>
     </row>
     <row r="63" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="43" t="s">
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="44" t="s">
         <v>50</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -12737,9 +12737,9 @@
       </c>
     </row>
     <row r="64" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="45"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="11" t="s">
         <v>18</v>
       </c>
@@ -12880,12 +12880,12 @@
       </c>
     </row>
     <row r="65" spans="1:49" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="44"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="43" t="s">
+      <c r="A65" s="45"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="40"/>
+      <c r="D65" s="48"/>
       <c r="E65" s="14">
         <v>1285</v>
       </c>
@@ -13023,7 +13023,7 @@
       </c>
     </row>
     <row r="66" spans="1:49" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="44"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="33" t="s">
         <v>1</v>
       </c>
@@ -13170,11 +13170,11 @@
       </c>
     </row>
     <row r="67" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A67" s="44"/>
-      <c r="B67" s="43" t="s">
+      <c r="A67" s="45"/>
+      <c r="B67" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="44" t="s">
         <v>36</v>
       </c>
       <c r="D67" s="11" t="s">
@@ -13317,9 +13317,9 @@
       </c>
     </row>
     <row r="68" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="45"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="11" t="s">
         <v>18</v>
       </c>
@@ -13460,9 +13460,9 @@
       </c>
     </row>
     <row r="69" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="43" t="s">
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="44" t="s">
         <v>37</v>
       </c>
       <c r="D69" s="11" t="s">
@@ -13605,9 +13605,9 @@
       </c>
     </row>
     <row r="70" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="45"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="46"/>
       <c r="D70" s="11" t="s">
         <v>18</v>
       </c>
@@ -13748,9 +13748,9 @@
       </c>
     </row>
     <row r="71" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="43" t="s">
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="44" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="11" t="s">
@@ -13893,9 +13893,9 @@
       </c>
     </row>
     <row r="72" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="45"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="46"/>
       <c r="D72" s="11" t="s">
         <v>18</v>
       </c>
@@ -14036,9 +14036,9 @@
       </c>
     </row>
     <row r="73" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="43" t="s">
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -14181,9 +14181,9 @@
       </c>
     </row>
     <row r="74" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="45"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="11" t="s">
         <v>18</v>
       </c>
@@ -14324,9 +14324,9 @@
       </c>
     </row>
     <row r="75" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="43" t="s">
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="44" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -14469,9 +14469,9 @@
       </c>
     </row>
     <row r="76" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="45"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="11" t="s">
         <v>18</v>
       </c>
@@ -14612,9 +14612,9 @@
       </c>
     </row>
     <row r="77" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="43" t="s">
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="44" t="s">
         <v>45</v>
       </c>
       <c r="D77" s="11" t="s">
@@ -14757,9 +14757,9 @@
       </c>
     </row>
     <row r="78" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="11" t="s">
         <v>24</v>
       </c>
@@ -14900,9 +14900,9 @@
       </c>
     </row>
     <row r="79" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="45"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="46"/>
       <c r="D79" s="11" t="s">
         <v>18</v>
       </c>
@@ -15043,9 +15043,9 @@
       </c>
     </row>
     <row r="80" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A80" s="44"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="43" t="s">
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="44" t="s">
         <v>47</v>
       </c>
       <c r="D80" s="11" t="s">
@@ -15188,9 +15188,9 @@
       </c>
     </row>
     <row r="81" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="45"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="11" t="s">
         <v>18</v>
       </c>
@@ -15331,9 +15331,9 @@
       </c>
     </row>
     <row r="82" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="43" t="s">
+      <c r="A82" s="45"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D82" s="11" t="s">
@@ -15476,9 +15476,9 @@
       </c>
     </row>
     <row r="83" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="45"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="46"/>
       <c r="D83" s="11" t="s">
         <v>18</v>
       </c>
@@ -15619,12 +15619,12 @@
       </c>
     </row>
     <row r="84" spans="1:49" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="44"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="43" t="s">
+      <c r="A84" s="45"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="40"/>
+      <c r="D84" s="48"/>
       <c r="E84" s="14">
         <v>54</v>
       </c>
@@ -15762,7 +15762,7 @@
       </c>
     </row>
     <row r="85" spans="1:49" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="44"/>
+      <c r="A85" s="45"/>
       <c r="B85" s="33" t="s">
         <v>1</v>
       </c>
@@ -15909,12 +15909,12 @@
       </c>
     </row>
     <row r="86" spans="1:49" ht="16" x14ac:dyDescent="0.35">
-      <c r="A86" s="45"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="39"/>
-      <c r="D86" s="40"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="48"/>
       <c r="E86" s="14">
         <v>1339</v>
       </c>
@@ -16201,13 +16201,13 @@
       </c>
     </row>
     <row r="88" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A88" s="43" t="s">
+      <c r="A88" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="43" t="s">
+      <c r="C88" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D88" s="11" t="s">
@@ -16350,9 +16350,9 @@
       </c>
     </row>
     <row r="89" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="45"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="46"/>
       <c r="D89" s="11" t="s">
         <v>18</v>
       </c>
@@ -16493,12 +16493,12 @@
       </c>
     </row>
     <row r="90" spans="1:49" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="44"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="43" t="s">
+      <c r="A90" s="45"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="40"/>
+      <c r="D90" s="48"/>
       <c r="E90" s="14">
         <v>21</v>
       </c>
@@ -16636,7 +16636,7 @@
       </c>
     </row>
     <row r="91" spans="1:49" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="44"/>
+      <c r="A91" s="45"/>
       <c r="B91" s="33" t="s">
         <v>1</v>
       </c>
@@ -16783,11 +16783,11 @@
       </c>
     </row>
     <row r="92" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A92" s="44"/>
-      <c r="B92" s="43" t="s">
+      <c r="A92" s="45"/>
+      <c r="B92" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C92" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D92" s="11" t="s">
@@ -16930,9 +16930,9 @@
       </c>
     </row>
     <row r="93" spans="1:49" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A93" s="44"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
       <c r="D93" s="11" t="s">
         <v>24</v>
       </c>
@@ -17073,9 +17073,9 @@
       </c>
     </row>
     <row r="94" spans="1:49" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="45"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="46"/>
       <c r="D94" s="11" t="s">
         <v>18</v>
       </c>
@@ -17216,12 +17216,12 @@
       </c>
     </row>
     <row r="95" spans="1:49" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="44"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="43" t="s">
+      <c r="A95" s="45"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D95" s="40"/>
+      <c r="D95" s="48"/>
       <c r="E95" s="14">
         <v>0</v>
       </c>
@@ -17359,7 +17359,7 @@
       </c>
     </row>
     <row r="96" spans="1:49" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="44"/>
+      <c r="A96" s="45"/>
       <c r="B96" s="33" t="s">
         <v>1</v>
       </c>
@@ -17506,12 +17506,12 @@
       </c>
     </row>
     <row r="97" spans="1:49" ht="16" x14ac:dyDescent="0.35">
-      <c r="A97" s="45"/>
+      <c r="A97" s="46"/>
       <c r="B97" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="39"/>
-      <c r="D97" s="40"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="48"/>
       <c r="E97" s="14">
         <v>21</v>
       </c>
@@ -17798,12 +17798,12 @@
       </c>
     </row>
     <row r="99" spans="1:49" ht="16" x14ac:dyDescent="0.35">
-      <c r="A99" s="55" t="s">
+      <c r="A99" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="40"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="48"/>
       <c r="E99" s="20">
         <v>1360</v>
       </c>
@@ -17944,6 +17944,49 @@
     <row r="101" spans="1:49" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AW1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="B67:B84"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="B4:B65"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C13"/>
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="B86:D86"/>
     <mergeCell ref="A88:A97"/>
@@ -17960,49 +18003,6 @@
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C30:C37"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="B67:B84"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="B4:B65"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AW1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -18017,56 +18017,58 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.7265625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="76" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="43" customWidth="1"/>
     <col min="4" max="4" width="33.26953125" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
     <col min="6" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
+    <col min="7" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="10" width="13.453125" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="14" width="13.54296875" customWidth="1"/>
     <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.35">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="63" t="s">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="63" t="s">
+      <c r="G1" s="74"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="63" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="74"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65"/>
-    </row>
-    <row r="2" spans="1:15" ht="28" x14ac:dyDescent="0.35">
+      <c r="P1" s="74"/>
+      <c r="Q1" s="73"/>
+    </row>
+    <row r="2" spans="1:17" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
@@ -18076,57 +18078,63 @@
       <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="39" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="40">
         <v>4</v>
       </c>
       <c r="F3" s="9">
@@ -18136,14 +18144,14 @@
         <v>1</v>
       </c>
       <c r="H3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
         <v>3</v>
       </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
       <c r="K3" s="9">
         <v>0</v>
       </c>
@@ -18151,23 +18159,29 @@
         <v>0</v>
       </c>
       <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
         <v>3</v>
       </c>
-      <c r="N3" s="9">
+      <c r="P3" s="9">
         <v>5</v>
       </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -18183,38 +18197,44 @@
         <v>1</v>
       </c>
       <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
         <v>10</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="9">
         <v>3</v>
       </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
       <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
         <v>10</v>
       </c>
-      <c r="L4" s="9">
+      <c r="M4" s="9">
         <v>4</v>
       </c>
-      <c r="M4" s="9">
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
         <v>17</v>
       </c>
-      <c r="N4" s="9">
+      <c r="P4" s="9">
         <v>3</v>
       </c>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -18253,8 +18273,14 @@
       <c r="O5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -18277,31 +18303,37 @@
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
         <v>2</v>
       </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
       <c r="K6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="9">
         <v>1</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
         <v>2</v>
       </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -18324,31 +18356,37 @@
         <v>2</v>
       </c>
       <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
         <v>10</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <v>3</v>
       </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
       <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
         <v>9</v>
       </c>
-      <c r="L7" s="9">
+      <c r="M7" s="9">
         <v>15</v>
       </c>
-      <c r="M7" s="9">
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
         <v>14</v>
       </c>
-      <c r="N7" s="9">
+      <c r="P7" s="9">
         <v>12</v>
       </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -18371,31 +18409,37 @@
         <v>6</v>
       </c>
       <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
         <v>34</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="9">
         <v>9</v>
       </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
       <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
         <v>31</v>
       </c>
-      <c r="L8" s="9">
+      <c r="M8" s="9">
         <v>13</v>
       </c>
-      <c r="M8" s="9">
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
         <v>29</v>
       </c>
-      <c r="N8" s="9">
+      <c r="P8" s="9">
         <v>6</v>
       </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
@@ -18441,8 +18485,14 @@
       <c r="O9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -18465,10 +18515,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="9">
         <v>0</v>
@@ -18480,16 +18530,22 @@
         <v>0</v>
       </c>
       <c r="M10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="9">
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -18515,28 +18571,34 @@
         <v>0</v>
       </c>
       <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
         <v>4</v>
       </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
       <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
         <v>4</v>
       </c>
-      <c r="L11" s="9">
-        <v>1</v>
-      </c>
       <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
         <v>7</v>
       </c>
-      <c r="N11" s="9">
-        <v>1</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P11" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
@@ -18559,31 +18621,37 @@
         <v>3</v>
       </c>
       <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
         <v>7</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="9">
         <v>6</v>
       </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
       <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
         <v>16</v>
       </c>
-      <c r="L12" s="9">
+      <c r="M12" s="9">
         <v>6</v>
       </c>
-      <c r="M12" s="9">
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
         <v>32</v>
       </c>
-      <c r="N12" s="9">
+      <c r="P12" s="9">
         <v>7</v>
       </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
@@ -18629,8 +18697,14 @@
       <c r="O13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
@@ -18653,31 +18727,37 @@
         <v>2</v>
       </c>
       <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
         <v>4</v>
       </c>
-      <c r="I14" s="9">
+      <c r="J14" s="9">
         <v>2</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
       <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
         <v>3</v>
       </c>
-      <c r="L14" s="9">
+      <c r="M14" s="9">
         <v>2</v>
       </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
       <c r="N14" s="9">
         <v>0</v>
       </c>
       <c r="O14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
@@ -18723,8 +18803,14 @@
       <c r="O15" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -18747,31 +18833,37 @@
         <v>0</v>
       </c>
       <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
         <v>5</v>
       </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
       <c r="J16" s="9">
         <v>0</v>
       </c>
       <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
         <v>10</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
       <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
         <v>9</v>
       </c>
-      <c r="N16" s="9">
+      <c r="P16" s="9">
         <v>2</v>
       </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
@@ -18794,31 +18886,37 @@
         <v>1</v>
       </c>
       <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
         <v>6</v>
       </c>
-      <c r="I17" s="9">
+      <c r="J17" s="9">
         <v>2</v>
       </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
       <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
         <v>10</v>
       </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
       <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
         <v>9</v>
       </c>
-      <c r="N17" s="9">
+      <c r="P17" s="9">
         <v>2</v>
       </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -18841,31 +18939,37 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
         <v>9</v>
       </c>
-      <c r="I18" s="9">
-        <v>1</v>
-      </c>
       <c r="J18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
         <v>6</v>
       </c>
-      <c r="L18" s="9">
+      <c r="M18" s="9">
         <v>4</v>
       </c>
-      <c r="M18" s="9">
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
         <v>16</v>
       </c>
-      <c r="N18" s="9">
-        <v>1</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P18" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -18888,31 +18992,37 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
         <v>13</v>
       </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
       <c r="J19" s="9">
         <v>0</v>
       </c>
       <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
         <v>21</v>
       </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
       <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
         <v>20</v>
       </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -18935,31 +19045,37 @@
         <v>2</v>
       </c>
       <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
         <v>45</v>
       </c>
-      <c r="I20" s="9">
+      <c r="J20" s="9">
         <v>7</v>
       </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
       <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
         <v>61</v>
       </c>
-      <c r="L20" s="9">
+      <c r="M20" s="9">
         <v>4</v>
       </c>
-      <c r="M20" s="9">
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
         <v>74</v>
       </c>
-      <c r="N20" s="9">
+      <c r="P20" s="9">
         <v>5</v>
       </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -18982,11 +19098,11 @@
         <v>0</v>
       </c>
       <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
         <v>14</v>
       </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
       <c r="J21" s="9">
         <v>0</v>
       </c>
@@ -19005,8 +19121,14 @@
       <c r="O21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
@@ -19029,31 +19151,37 @@
         <v>0</v>
       </c>
       <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
         <v>3</v>
       </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
       <c r="J22" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="9">
+        <v>1</v>
+      </c>
+      <c r="L22" s="9">
         <v>4</v>
       </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
       <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
         <v>7</v>
       </c>
-      <c r="N22" s="9">
-        <v>1</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P22" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -19099,8 +19227,14 @@
       <c r="O23" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
@@ -19123,31 +19257,37 @@
         <v>0</v>
       </c>
       <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
         <v>26</v>
       </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
       <c r="J24" s="9">
         <v>0</v>
       </c>
       <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
         <v>13</v>
       </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
       <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
         <v>22</v>
       </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -19182,10 +19322,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="9">
         <v>0</v>
@@ -19193,8 +19333,14 @@
       <c r="O25" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>21</v>
       </c>
@@ -19217,16 +19363,16 @@
         <v>5</v>
       </c>
       <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
         <v>5</v>
       </c>
-      <c r="I26" s="9">
+      <c r="J26" s="9">
         <v>6</v>
       </c>
-      <c r="J26" s="9">
-        <v>0</v>
-      </c>
       <c r="K26" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L26" s="9">
         <v>3</v>
@@ -19235,13 +19381,19 @@
         <v>3</v>
       </c>
       <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>3</v>
+      </c>
+      <c r="P26" s="9">
         <v>7</v>
       </c>
-      <c r="O26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
@@ -19264,31 +19416,37 @@
         <v>4</v>
       </c>
       <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
         <v>22</v>
       </c>
-      <c r="I27" s="9">
+      <c r="J27" s="9">
         <v>15</v>
       </c>
-      <c r="J27" s="9">
-        <v>0</v>
-      </c>
       <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
         <v>13</v>
       </c>
-      <c r="L27" s="9">
+      <c r="M27" s="9">
         <v>16</v>
       </c>
-      <c r="M27" s="9">
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
         <v>19</v>
       </c>
-      <c r="N27" s="9">
+      <c r="P27" s="9">
         <v>12</v>
       </c>
-      <c r="O27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -19334,8 +19492,14 @@
       <c r="O28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>21</v>
       </c>
@@ -19381,8 +19545,14 @@
       <c r="O29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>21</v>
       </c>
@@ -19405,11 +19575,11 @@
         <v>0</v>
       </c>
       <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
         <v>47</v>
       </c>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
       <c r="J30" s="9">
         <v>0</v>
       </c>
@@ -19428,8 +19598,14 @@
       <c r="O30" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>21</v>
       </c>
@@ -19467,16 +19643,22 @@
         <v>0</v>
       </c>
       <c r="M31" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="9">
         <v>0</v>
       </c>
       <c r="O31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
@@ -19499,31 +19681,37 @@
         <v>1</v>
       </c>
       <c r="H32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="9">
+        <v>1</v>
+      </c>
+      <c r="J32" s="9">
         <v>2</v>
       </c>
-      <c r="J32" s="9">
-        <v>0</v>
-      </c>
       <c r="K32" s="9">
         <v>0</v>
       </c>
       <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
         <v>4</v>
       </c>
-      <c r="M32" s="9">
-        <v>0</v>
-      </c>
       <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>21</v>
       </c>
@@ -19558,10 +19746,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="9">
         <v>0</v>
@@ -19569,8 +19757,14 @@
       <c r="O33" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>21</v>
       </c>
@@ -19593,31 +19787,37 @@
         <v>4</v>
       </c>
       <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
         <v>13</v>
       </c>
-      <c r="I34" s="9">
+      <c r="J34" s="9">
         <v>5</v>
       </c>
-      <c r="J34" s="9">
-        <v>0</v>
-      </c>
       <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
         <v>11</v>
       </c>
-      <c r="L34" s="9">
+      <c r="M34" s="9">
         <v>6</v>
       </c>
-      <c r="M34" s="9">
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
         <v>7</v>
       </c>
-      <c r="N34" s="9">
+      <c r="P34" s="9">
         <v>7</v>
       </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>21</v>
       </c>
@@ -19640,31 +19840,37 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
         <v>21</v>
       </c>
-      <c r="I35" s="9">
+      <c r="J35" s="9">
         <v>2</v>
       </c>
-      <c r="J35" s="9">
-        <v>1</v>
-      </c>
       <c r="K35" s="9">
+        <v>1</v>
+      </c>
+      <c r="L35" s="9">
         <v>21</v>
       </c>
-      <c r="L35" s="9">
-        <v>1</v>
-      </c>
       <c r="M35" s="9">
+        <v>1</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
         <v>151</v>
       </c>
-      <c r="N35" s="9">
+      <c r="P35" s="9">
         <v>3</v>
       </c>
-      <c r="O35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>21</v>
       </c>
@@ -19687,31 +19893,37 @@
         <v>1</v>
       </c>
       <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
         <v>7</v>
       </c>
-      <c r="I36" s="9">
+      <c r="J36" s="9">
         <v>2</v>
       </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
       <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9">
         <v>11</v>
       </c>
-      <c r="L36" s="9">
-        <v>1</v>
-      </c>
       <c r="M36" s="9">
+        <v>1</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
         <v>9</v>
       </c>
-      <c r="N36" s="9">
-        <v>1</v>
-      </c>
-      <c r="O36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P36" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
@@ -19734,31 +19946,37 @@
         <v>67</v>
       </c>
       <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
         <v>733</v>
       </c>
-      <c r="I37" s="9">
+      <c r="J37" s="9">
         <v>56</v>
       </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
       <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
         <v>924</v>
       </c>
-      <c r="L37" s="9">
+      <c r="M37" s="9">
         <v>43</v>
       </c>
-      <c r="M37" s="9">
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
         <v>776</v>
       </c>
-      <c r="N37" s="9">
+      <c r="P37" s="9">
         <v>49</v>
       </c>
-      <c r="O37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>21</v>
       </c>
@@ -19784,28 +20002,34 @@
         <v>0</v>
       </c>
       <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="9">
         <v>3</v>
       </c>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
       <c r="K38" s="9">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9">
         <v>2</v>
       </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
       <c r="M38" s="9">
         <v>0</v>
       </c>
       <c r="N38" s="9">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0</v>
+      </c>
+      <c r="P38" s="9">
         <v>2</v>
       </c>
-      <c r="O38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>21</v>
       </c>
@@ -19828,11 +20052,11 @@
         <v>4</v>
       </c>
       <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9">
         <v>2</v>
       </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
       <c r="J39" s="9">
         <v>0</v>
       </c>
@@ -19840,19 +20064,25 @@
         <v>0</v>
       </c>
       <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
         <v>8</v>
       </c>
-      <c r="M39" s="9">
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
         <v>2</v>
       </c>
-      <c r="N39" s="9">
+      <c r="P39" s="9">
         <v>3</v>
       </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>21</v>
       </c>
@@ -19875,31 +20105,37 @@
         <v>19</v>
       </c>
       <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
         <v>35</v>
       </c>
-      <c r="I40" s="9">
+      <c r="J40" s="9">
         <v>19</v>
       </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
       <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
         <v>40</v>
       </c>
-      <c r="L40" s="9">
+      <c r="M40" s="9">
         <v>20</v>
       </c>
-      <c r="M40" s="9">
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
         <v>45</v>
       </c>
-      <c r="N40" s="9">
+      <c r="P40" s="9">
         <v>27</v>
       </c>
-      <c r="O40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>21</v>
       </c>
@@ -19934,19 +20170,25 @@
         <v>0</v>
       </c>
       <c r="L41" s="9">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
         <v>4</v>
       </c>
-      <c r="M41" s="9">
-        <v>0</v>
-      </c>
       <c r="N41" s="9">
         <v>0</v>
       </c>
       <c r="O41" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>21</v>
       </c>
@@ -19984,16 +20226,22 @@
         <v>0</v>
       </c>
       <c r="M42" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="9">
         <v>0</v>
       </c>
       <c r="O42" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -20019,10 +20267,10 @@
         <v>0</v>
       </c>
       <c r="I43" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="9">
         <v>0</v>
@@ -20039,8 +20287,14 @@
       <c r="O43" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P43" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>21</v>
       </c>
@@ -20078,16 +20332,22 @@
         <v>0</v>
       </c>
       <c r="M44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="9">
         <v>0</v>
       </c>
       <c r="O44" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>21</v>
       </c>
@@ -20110,31 +20370,37 @@
         <v>2</v>
       </c>
       <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
         <v>2</v>
       </c>
-      <c r="I45" s="9">
-        <v>0</v>
-      </c>
       <c r="J45" s="9">
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
         <v>3</v>
       </c>
-      <c r="N45" s="9">
-        <v>0</v>
-      </c>
-      <c r="O45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>21</v>
       </c>
@@ -20157,19 +20423,19 @@
         <v>2</v>
       </c>
       <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
         <v>3</v>
       </c>
-      <c r="I46" s="9">
-        <v>0</v>
-      </c>
       <c r="J46" s="9">
         <v>0</v>
       </c>
       <c r="K46" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="9">
         <v>0</v>
@@ -20180,8 +20446,14 @@
       <c r="O46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P46" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>21</v>
       </c>
@@ -20204,31 +20476,37 @@
         <v>6</v>
       </c>
       <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
         <v>33</v>
       </c>
-      <c r="I47" s="9">
+      <c r="J47" s="9">
         <v>7</v>
       </c>
-      <c r="J47" s="9">
-        <v>0</v>
-      </c>
       <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
         <v>44</v>
       </c>
-      <c r="L47" s="9">
+      <c r="M47" s="9">
         <v>6</v>
       </c>
-      <c r="M47" s="9">
+      <c r="N47" s="9">
+        <v>0</v>
+      </c>
+      <c r="O47" s="9">
         <v>44</v>
       </c>
-      <c r="N47" s="9">
+      <c r="P47" s="9">
         <v>12</v>
       </c>
-      <c r="O47" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>21</v>
       </c>
@@ -20274,8 +20552,14 @@
       <c r="O48" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P48" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>21</v>
       </c>
@@ -20298,31 +20582,37 @@
         <v>2</v>
       </c>
       <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
         <v>4</v>
       </c>
-      <c r="I49" s="9">
+      <c r="J49" s="9">
         <v>2</v>
       </c>
-      <c r="J49" s="9">
-        <v>0</v>
-      </c>
       <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
         <v>7</v>
       </c>
-      <c r="L49" s="9">
-        <v>0</v>
-      </c>
       <c r="M49" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="9">
         <v>0</v>
       </c>
       <c r="O49" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>21</v>
       </c>
@@ -20345,31 +20635,37 @@
         <v>18</v>
       </c>
       <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
         <v>5</v>
       </c>
-      <c r="I50" s="9">
+      <c r="J50" s="9">
         <v>9</v>
       </c>
-      <c r="J50" s="9">
-        <v>0</v>
-      </c>
       <c r="K50" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="9">
+        <v>1</v>
+      </c>
+      <c r="M50" s="9">
         <v>15</v>
       </c>
-      <c r="M50" s="9">
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
+      <c r="O50" s="9">
         <v>5</v>
       </c>
-      <c r="N50" s="9">
+      <c r="P50" s="9">
         <v>16</v>
       </c>
-      <c r="O50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>21</v>
       </c>
@@ -20392,19 +20688,19 @@
         <v>1</v>
       </c>
       <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
         <v>4</v>
       </c>
-      <c r="I51" s="9">
-        <v>1</v>
-      </c>
       <c r="J51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="9">
         <v>0</v>
@@ -20415,8 +20711,14 @@
       <c r="O51" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>21</v>
       </c>
@@ -20448,10 +20750,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="9">
         <v>0</v>
@@ -20462,8 +20764,14 @@
       <c r="O52" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>21</v>
       </c>
@@ -20486,31 +20794,37 @@
         <v>10</v>
       </c>
       <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
         <v>5</v>
       </c>
-      <c r="I53" s="9">
+      <c r="J53" s="9">
         <v>4</v>
       </c>
-      <c r="J53" s="9">
-        <v>0</v>
-      </c>
       <c r="K53" s="9">
+        <v>0</v>
+      </c>
+      <c r="L53" s="9">
         <v>6</v>
       </c>
-      <c r="L53" s="9">
+      <c r="M53" s="9">
         <v>2</v>
       </c>
-      <c r="M53" s="9">
+      <c r="N53" s="9">
+        <v>0</v>
+      </c>
+      <c r="O53" s="9">
         <v>7</v>
       </c>
-      <c r="N53" s="9">
+      <c r="P53" s="9">
         <v>3</v>
       </c>
-      <c r="O53" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>21</v>
       </c>
@@ -20533,31 +20847,37 @@
         <v>0</v>
       </c>
       <c r="H54" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="9">
         <v>1</v>
       </c>
       <c r="J54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9">
         <v>4</v>
       </c>
-      <c r="L54" s="9">
-        <v>0</v>
-      </c>
       <c r="M54" s="9">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9">
+        <v>0</v>
+      </c>
+      <c r="O54" s="9">
         <v>2</v>
       </c>
-      <c r="N54" s="9">
-        <v>1</v>
-      </c>
-      <c r="O54" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P54" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>21</v>
       </c>
@@ -20583,17 +20903,17 @@
         <v>0</v>
       </c>
       <c r="I55" s="9">
+        <v>0</v>
+      </c>
+      <c r="J55" s="9">
         <v>2</v>
       </c>
-      <c r="J55" s="9">
-        <v>0</v>
-      </c>
       <c r="K55" s="9">
+        <v>0</v>
+      </c>
+      <c r="L55" s="9">
         <v>6</v>
       </c>
-      <c r="L55" s="9">
-        <v>0</v>
-      </c>
       <c r="M55" s="9">
         <v>0</v>
       </c>
@@ -20603,8 +20923,14 @@
       <c r="O55" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P55" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>21</v>
       </c>
@@ -20627,16 +20953,16 @@
         <v>5</v>
       </c>
       <c r="H56" s="9">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9">
         <v>5</v>
       </c>
-      <c r="I56" s="9">
+      <c r="J56" s="9">
         <v>9</v>
       </c>
-      <c r="J56" s="9">
-        <v>0</v>
-      </c>
       <c r="K56" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L56" s="9">
         <v>9</v>
@@ -20645,13 +20971,19 @@
         <v>9</v>
       </c>
       <c r="N56" s="9">
+        <v>0</v>
+      </c>
+      <c r="O56" s="9">
+        <v>9</v>
+      </c>
+      <c r="P56" s="9">
         <v>5</v>
       </c>
-      <c r="O56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>21</v>
       </c>
@@ -20674,10 +21006,10 @@
         <v>2</v>
       </c>
       <c r="H57" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="9">
         <v>0</v>
@@ -20697,16 +21029,22 @@
       <c r="O57" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="P57" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -20721,31 +21059,31 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.7265625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="76" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="43" customWidth="1"/>
     <col min="4" max="4" width="33.26953125" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
     <col min="6" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
+    <col min="7" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="10" width="13.453125" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="14" width="13.54296875" customWidth="1"/>
     <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
@@ -20755,57 +21093,63 @@
       <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="39" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="40">
         <v>4</v>
       </c>
       <c r="F2" s="9">
@@ -20815,14 +21159,14 @@
         <v>1</v>
       </c>
       <c r="H2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
         <v>3</v>
       </c>
-      <c r="J2" s="9">
-        <v>0</v>
-      </c>
       <c r="K2" s="9">
         <v>0</v>
       </c>
@@ -20830,23 +21174,29 @@
         <v>0</v>
       </c>
       <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
         <v>3</v>
       </c>
-      <c r="N2" s="9">
+      <c r="P2" s="9">
         <v>5</v>
       </c>
-      <c r="O2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -20862,38 +21212,44 @@
         <v>1</v>
       </c>
       <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
         <v>10</v>
       </c>
-      <c r="I3" s="9">
+      <c r="J3" s="9">
         <v>3</v>
       </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
       <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
         <v>10</v>
       </c>
-      <c r="L3" s="9">
+      <c r="M3" s="9">
         <v>4</v>
       </c>
-      <c r="M3" s="9">
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
         <v>17</v>
       </c>
-      <c r="N3" s="9">
+      <c r="P3" s="9">
         <v>3</v>
       </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -20932,8 +21288,14 @@
       <c r="O4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -20956,31 +21318,37 @@
         <v>0</v>
       </c>
       <c r="H5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
         <v>2</v>
       </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
       <c r="K5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="9">
         <v>1</v>
       </c>
       <c r="M5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
         <v>2</v>
       </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -21003,31 +21371,37 @@
         <v>2</v>
       </c>
       <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
         <v>10</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="9">
         <v>3</v>
       </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
       <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
         <v>9</v>
       </c>
-      <c r="L6" s="9">
+      <c r="M6" s="9">
         <v>15</v>
       </c>
-      <c r="M6" s="9">
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
         <v>14</v>
       </c>
-      <c r="N6" s="9">
+      <c r="P6" s="9">
         <v>12</v>
       </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -21050,31 +21424,37 @@
         <v>6</v>
       </c>
       <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
         <v>34</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <v>9</v>
       </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
       <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
         <v>31</v>
       </c>
-      <c r="L7" s="9">
+      <c r="M7" s="9">
         <v>13</v>
       </c>
-      <c r="M7" s="9">
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
         <v>29</v>
       </c>
-      <c r="N7" s="9">
+      <c r="P7" s="9">
         <v>6</v>
       </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -21120,8 +21500,14 @@
       <c r="O8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
@@ -21144,10 +21530,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
@@ -21159,16 +21545,22 @@
         <v>0</v>
       </c>
       <c r="M9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="9">
         <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -21194,28 +21586,34 @@
         <v>0</v>
       </c>
       <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
         <v>4</v>
       </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
       <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
         <v>4</v>
       </c>
-      <c r="L10" s="9">
-        <v>1</v>
-      </c>
       <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
         <v>7</v>
       </c>
-      <c r="N10" s="9">
-        <v>1</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -21238,31 +21636,37 @@
         <v>3</v>
       </c>
       <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
         <v>7</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="9">
         <v>6</v>
       </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
       <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
         <v>16</v>
       </c>
-      <c r="L11" s="9">
+      <c r="M11" s="9">
         <v>6</v>
       </c>
-      <c r="M11" s="9">
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
         <v>32</v>
       </c>
-      <c r="N11" s="9">
+      <c r="P11" s="9">
         <v>7</v>
       </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
@@ -21308,8 +21712,14 @@
       <c r="O12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
@@ -21332,31 +21742,37 @@
         <v>2</v>
       </c>
       <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
         <v>4</v>
       </c>
-      <c r="I13" s="9">
+      <c r="J13" s="9">
         <v>2</v>
       </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
       <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
         <v>3</v>
       </c>
-      <c r="L13" s="9">
+      <c r="M13" s="9">
         <v>2</v>
       </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
       <c r="N13" s="9">
         <v>0</v>
       </c>
       <c r="O13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
@@ -21402,8 +21818,14 @@
       <c r="O14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
@@ -21426,31 +21848,37 @@
         <v>0</v>
       </c>
       <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
         <v>5</v>
       </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
       <c r="J15" s="9">
         <v>0</v>
       </c>
       <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
         <v>10</v>
       </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
       <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
         <v>9</v>
       </c>
-      <c r="N15" s="9">
+      <c r="P15" s="9">
         <v>2</v>
       </c>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -21473,31 +21901,37 @@
         <v>1</v>
       </c>
       <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
         <v>6</v>
       </c>
-      <c r="I16" s="9">
+      <c r="J16" s="9">
         <v>2</v>
       </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
       <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
         <v>10</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
       <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
         <v>9</v>
       </c>
-      <c r="N16" s="9">
+      <c r="P16" s="9">
         <v>2</v>
       </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
@@ -21520,31 +21954,37 @@
         <v>0</v>
       </c>
       <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
         <v>9</v>
       </c>
-      <c r="I17" s="9">
-        <v>1</v>
-      </c>
       <c r="J17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
         <v>6</v>
       </c>
-      <c r="L17" s="9">
+      <c r="M17" s="9">
         <v>4</v>
       </c>
-      <c r="M17" s="9">
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
         <v>16</v>
       </c>
-      <c r="N17" s="9">
-        <v>1</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P17" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -21567,31 +22007,37 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
         <v>13</v>
       </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
       <c r="J18" s="9">
         <v>0</v>
       </c>
       <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
         <v>21</v>
       </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
       <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
         <v>20</v>
       </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -21614,31 +22060,37 @@
         <v>2</v>
       </c>
       <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
         <v>45</v>
       </c>
-      <c r="I19" s="9">
+      <c r="J19" s="9">
         <v>7</v>
       </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
       <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
         <v>61</v>
       </c>
-      <c r="L19" s="9">
+      <c r="M19" s="9">
         <v>4</v>
       </c>
-      <c r="M19" s="9">
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
         <v>74</v>
       </c>
-      <c r="N19" s="9">
+      <c r="P19" s="9">
         <v>5</v>
       </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -21661,11 +22113,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
         <v>14</v>
       </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
       <c r="J20" s="9">
         <v>0</v>
       </c>
@@ -21684,8 +22136,14 @@
       <c r="O20" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -21708,31 +22166,37 @@
         <v>0</v>
       </c>
       <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
         <v>3</v>
       </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
       <c r="J21" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9">
         <v>4</v>
       </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
       <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
         <v>7</v>
       </c>
-      <c r="N21" s="9">
-        <v>1</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P21" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
@@ -21778,8 +22242,14 @@
       <c r="O22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -21802,31 +22272,37 @@
         <v>0</v>
       </c>
       <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
         <v>26</v>
       </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
       <c r="J23" s="9">
         <v>0</v>
       </c>
       <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
         <v>13</v>
       </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
       <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
         <v>22</v>
       </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
@@ -21861,10 +22337,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="9">
         <v>0</v>
@@ -21872,8 +22348,14 @@
       <c r="O24" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -21896,16 +22378,16 @@
         <v>5</v>
       </c>
       <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
         <v>5</v>
       </c>
-      <c r="I25" s="9">
+      <c r="J25" s="9">
         <v>6</v>
       </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
       <c r="K25" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25" s="9">
         <v>3</v>
@@ -21914,13 +22396,19 @@
         <v>3</v>
       </c>
       <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>3</v>
+      </c>
+      <c r="P25" s="9">
         <v>7</v>
       </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>21</v>
       </c>
@@ -21943,31 +22431,37 @@
         <v>4</v>
       </c>
       <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
         <v>22</v>
       </c>
-      <c r="I26" s="9">
+      <c r="J26" s="9">
         <v>15</v>
       </c>
-      <c r="J26" s="9">
-        <v>0</v>
-      </c>
       <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
         <v>13</v>
       </c>
-      <c r="L26" s="9">
+      <c r="M26" s="9">
         <v>16</v>
       </c>
-      <c r="M26" s="9">
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
         <v>19</v>
       </c>
-      <c r="N26" s="9">
+      <c r="P26" s="9">
         <v>12</v>
       </c>
-      <c r="O26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
@@ -22013,8 +22507,14 @@
       <c r="O27" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -22060,8 +22560,14 @@
       <c r="O28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>21</v>
       </c>
@@ -22084,11 +22590,11 @@
         <v>0</v>
       </c>
       <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
         <v>47</v>
       </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
       <c r="J29" s="9">
         <v>0</v>
       </c>
@@ -22107,8 +22613,14 @@
       <c r="O29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>21</v>
       </c>
@@ -22146,16 +22658,22 @@
         <v>0</v>
       </c>
       <c r="M30" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="9">
         <v>0</v>
       </c>
       <c r="O30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>21</v>
       </c>
@@ -22178,31 +22696,37 @@
         <v>1</v>
       </c>
       <c r="H31" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="9">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9">
         <v>2</v>
       </c>
-      <c r="J31" s="9">
-        <v>0</v>
-      </c>
       <c r="K31" s="9">
         <v>0</v>
       </c>
       <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
         <v>4</v>
       </c>
-      <c r="M31" s="9">
-        <v>0</v>
-      </c>
       <c r="N31" s="9">
         <v>0</v>
       </c>
       <c r="O31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
@@ -22237,10 +22761,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
@@ -22248,8 +22772,14 @@
       <c r="O32" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>21</v>
       </c>
@@ -22272,31 +22802,37 @@
         <v>4</v>
       </c>
       <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
         <v>13</v>
       </c>
-      <c r="I33" s="9">
+      <c r="J33" s="9">
         <v>5</v>
       </c>
-      <c r="J33" s="9">
-        <v>0</v>
-      </c>
       <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
         <v>11</v>
       </c>
-      <c r="L33" s="9">
+      <c r="M33" s="9">
         <v>6</v>
       </c>
-      <c r="M33" s="9">
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
         <v>7</v>
       </c>
-      <c r="N33" s="9">
+      <c r="P33" s="9">
         <v>7</v>
       </c>
-      <c r="O33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>21</v>
       </c>
@@ -22319,31 +22855,37 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
         <v>21</v>
       </c>
-      <c r="I34" s="9">
+      <c r="J34" s="9">
         <v>2</v>
       </c>
-      <c r="J34" s="9">
-        <v>1</v>
-      </c>
       <c r="K34" s="9">
+        <v>1</v>
+      </c>
+      <c r="L34" s="9">
         <v>21</v>
       </c>
-      <c r="L34" s="9">
-        <v>1</v>
-      </c>
       <c r="M34" s="9">
+        <v>1</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
         <v>151</v>
       </c>
-      <c r="N34" s="9">
+      <c r="P34" s="9">
         <v>3</v>
       </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>21</v>
       </c>
@@ -22366,31 +22908,37 @@
         <v>1</v>
       </c>
       <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
         <v>7</v>
       </c>
-      <c r="I35" s="9">
+      <c r="J35" s="9">
         <v>2</v>
       </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
       <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
         <v>11</v>
       </c>
-      <c r="L35" s="9">
-        <v>1</v>
-      </c>
       <c r="M35" s="9">
+        <v>1</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
         <v>9</v>
       </c>
-      <c r="N35" s="9">
-        <v>1</v>
-      </c>
-      <c r="O35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P35" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>21</v>
       </c>
@@ -22413,31 +22961,37 @@
         <v>67</v>
       </c>
       <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
         <v>733</v>
       </c>
-      <c r="I36" s="9">
+      <c r="J36" s="9">
         <v>56</v>
       </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
       <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9">
         <v>924</v>
       </c>
-      <c r="L36" s="9">
+      <c r="M36" s="9">
         <v>43</v>
       </c>
-      <c r="M36" s="9">
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
         <v>776</v>
       </c>
-      <c r="N36" s="9">
+      <c r="P36" s="9">
         <v>49</v>
       </c>
-      <c r="O36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
@@ -22463,28 +23017,34 @@
         <v>0</v>
       </c>
       <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
         <v>3</v>
       </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
       <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
         <v>2</v>
       </c>
-      <c r="L37" s="9">
-        <v>0</v>
-      </c>
       <c r="M37" s="9">
         <v>0</v>
       </c>
       <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9">
         <v>2</v>
       </c>
-      <c r="O37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>21</v>
       </c>
@@ -22507,11 +23067,11 @@
         <v>4</v>
       </c>
       <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
         <v>2</v>
       </c>
-      <c r="I38" s="9">
-        <v>0</v>
-      </c>
       <c r="J38" s="9">
         <v>0</v>
       </c>
@@ -22519,19 +23079,25 @@
         <v>0</v>
       </c>
       <c r="L38" s="9">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
         <v>8</v>
       </c>
-      <c r="M38" s="9">
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
         <v>2</v>
       </c>
-      <c r="N38" s="9">
+      <c r="P38" s="9">
         <v>3</v>
       </c>
-      <c r="O38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>21</v>
       </c>
@@ -22554,31 +23120,37 @@
         <v>19</v>
       </c>
       <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9">
         <v>35</v>
       </c>
-      <c r="I39" s="9">
+      <c r="J39" s="9">
         <v>19</v>
       </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
       <c r="K39" s="9">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
         <v>40</v>
       </c>
-      <c r="L39" s="9">
+      <c r="M39" s="9">
         <v>20</v>
       </c>
-      <c r="M39" s="9">
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
         <v>45</v>
       </c>
-      <c r="N39" s="9">
+      <c r="P39" s="9">
         <v>27</v>
       </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>21</v>
       </c>
@@ -22613,19 +23185,25 @@
         <v>0</v>
       </c>
       <c r="L40" s="9">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
         <v>4</v>
       </c>
-      <c r="M40" s="9">
-        <v>0</v>
-      </c>
       <c r="N40" s="9">
         <v>0</v>
       </c>
       <c r="O40" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>21</v>
       </c>
@@ -22663,16 +23241,22 @@
         <v>0</v>
       </c>
       <c r="M41" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="9">
         <v>0</v>
       </c>
       <c r="O41" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>21</v>
       </c>
@@ -22698,10 +23282,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="9">
         <v>0</v>
@@ -22718,8 +23302,14 @@
       <c r="O42" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -22757,16 +23347,22 @@
         <v>0</v>
       </c>
       <c r="M43" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="9">
         <v>0</v>
       </c>
       <c r="O43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P43" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>21</v>
       </c>
@@ -22789,31 +23385,37 @@
         <v>2</v>
       </c>
       <c r="H44" s="9">
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
         <v>2</v>
       </c>
-      <c r="I44" s="9">
-        <v>0</v>
-      </c>
       <c r="J44" s="9">
         <v>0</v>
       </c>
       <c r="K44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="9">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
         <v>3</v>
       </c>
-      <c r="N44" s="9">
-        <v>0</v>
-      </c>
-      <c r="O44" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>21</v>
       </c>
@@ -22836,19 +23438,19 @@
         <v>2</v>
       </c>
       <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
         <v>3</v>
       </c>
-      <c r="I45" s="9">
-        <v>0</v>
-      </c>
       <c r="J45" s="9">
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="9">
         <v>0</v>
@@ -22859,8 +23461,14 @@
       <c r="O45" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>21</v>
       </c>
@@ -22883,31 +23491,37 @@
         <v>6</v>
       </c>
       <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
         <v>33</v>
       </c>
-      <c r="I46" s="9">
+      <c r="J46" s="9">
         <v>7</v>
       </c>
-      <c r="J46" s="9">
-        <v>0</v>
-      </c>
       <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9">
         <v>44</v>
       </c>
-      <c r="L46" s="9">
+      <c r="M46" s="9">
         <v>6</v>
       </c>
-      <c r="M46" s="9">
+      <c r="N46" s="9">
+        <v>0</v>
+      </c>
+      <c r="O46" s="9">
         <v>44</v>
       </c>
-      <c r="N46" s="9">
+      <c r="P46" s="9">
         <v>12</v>
       </c>
-      <c r="O46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>21</v>
       </c>
@@ -22953,8 +23567,14 @@
       <c r="O47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P47" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>21</v>
       </c>
@@ -22977,31 +23597,37 @@
         <v>2</v>
       </c>
       <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
         <v>4</v>
       </c>
-      <c r="I48" s="9">
+      <c r="J48" s="9">
         <v>2</v>
       </c>
-      <c r="J48" s="9">
-        <v>0</v>
-      </c>
       <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
         <v>7</v>
       </c>
-      <c r="L48" s="9">
-        <v>0</v>
-      </c>
       <c r="M48" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="9">
         <v>0</v>
       </c>
       <c r="O48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P48" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>21</v>
       </c>
@@ -23024,31 +23650,37 @@
         <v>18</v>
       </c>
       <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
         <v>5</v>
       </c>
-      <c r="I49" s="9">
+      <c r="J49" s="9">
         <v>9</v>
       </c>
-      <c r="J49" s="9">
-        <v>0</v>
-      </c>
       <c r="K49" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="9">
+        <v>1</v>
+      </c>
+      <c r="M49" s="9">
         <v>15</v>
       </c>
-      <c r="M49" s="9">
+      <c r="N49" s="9">
+        <v>0</v>
+      </c>
+      <c r="O49" s="9">
         <v>5</v>
       </c>
-      <c r="N49" s="9">
+      <c r="P49" s="9">
         <v>16</v>
       </c>
-      <c r="O49" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>21</v>
       </c>
@@ -23071,19 +23703,19 @@
         <v>1</v>
       </c>
       <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
         <v>4</v>
       </c>
-      <c r="I50" s="9">
-        <v>1</v>
-      </c>
       <c r="J50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="9">
         <v>0</v>
@@ -23094,8 +23726,14 @@
       <c r="O50" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P50" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>21</v>
       </c>
@@ -23127,10 +23765,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="9">
         <v>0</v>
@@ -23141,8 +23779,14 @@
       <c r="O51" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>21</v>
       </c>
@@ -23165,31 +23809,37 @@
         <v>10</v>
       </c>
       <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
         <v>5</v>
       </c>
-      <c r="I52" s="9">
+      <c r="J52" s="9">
         <v>4</v>
       </c>
-      <c r="J52" s="9">
-        <v>0</v>
-      </c>
       <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
         <v>6</v>
       </c>
-      <c r="L52" s="9">
+      <c r="M52" s="9">
         <v>2</v>
       </c>
-      <c r="M52" s="9">
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
+      <c r="O52" s="9">
         <v>7</v>
       </c>
-      <c r="N52" s="9">
+      <c r="P52" s="9">
         <v>3</v>
       </c>
-      <c r="O52" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>21</v>
       </c>
@@ -23212,31 +23862,37 @@
         <v>0</v>
       </c>
       <c r="H53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="9">
         <v>1</v>
       </c>
       <c r="J53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="9">
+        <v>0</v>
+      </c>
+      <c r="L53" s="9">
         <v>4</v>
       </c>
-      <c r="L53" s="9">
-        <v>0</v>
-      </c>
       <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9">
+        <v>0</v>
+      </c>
+      <c r="O53" s="9">
         <v>2</v>
       </c>
-      <c r="N53" s="9">
-        <v>1</v>
-      </c>
-      <c r="O53" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P53" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>21</v>
       </c>
@@ -23262,17 +23918,17 @@
         <v>0</v>
       </c>
       <c r="I54" s="9">
+        <v>0</v>
+      </c>
+      <c r="J54" s="9">
         <v>2</v>
       </c>
-      <c r="J54" s="9">
-        <v>0</v>
-      </c>
       <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9">
         <v>6</v>
       </c>
-      <c r="L54" s="9">
-        <v>0</v>
-      </c>
       <c r="M54" s="9">
         <v>0</v>
       </c>
@@ -23282,8 +23938,14 @@
       <c r="O54" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P54" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>21</v>
       </c>
@@ -23306,16 +23968,16 @@
         <v>5</v>
       </c>
       <c r="H55" s="9">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
         <v>5</v>
       </c>
-      <c r="I55" s="9">
+      <c r="J55" s="9">
         <v>9</v>
       </c>
-      <c r="J55" s="9">
-        <v>0</v>
-      </c>
       <c r="K55" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L55" s="9">
         <v>9</v>
@@ -23324,13 +23986,19 @@
         <v>9</v>
       </c>
       <c r="N55" s="9">
+        <v>0</v>
+      </c>
+      <c r="O55" s="9">
+        <v>9</v>
+      </c>
+      <c r="P55" s="9">
         <v>5</v>
       </c>
-      <c r="O55" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q55" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>21</v>
       </c>
@@ -23353,10 +24021,10 @@
         <v>2</v>
       </c>
       <c r="H56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="9">
         <v>0</v>
@@ -23376,9 +24044,15 @@
       <c r="O56" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="P56" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -23403,7 +24077,7 @@
   <cols>
     <col min="1" max="1" width="20.7265625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="76" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="43" customWidth="1"/>
     <col min="4" max="4" width="33.26953125" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
     <col min="6" max="6" width="13.54296875" customWidth="1"/>
@@ -23417,31 +24091,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="66" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="66" t="s">
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="66" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="66" t="s">
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
     </row>
     <row r="2" spans="1:17" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -23453,10 +24127,10 @@
       <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="41" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -23503,13 +24177,13 @@
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="40">
         <v>4</v>
       </c>
       <c r="F3" s="9">
@@ -23556,7 +24230,7 @@
       <c r="B4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -23609,7 +24283,7 @@
       <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -24132,7 +24806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
@@ -26437,14 +27111,14 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.7265625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="76" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="43" customWidth="1"/>
     <col min="4" max="4" width="33.26953125" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
     <col min="6" max="6" width="13.54296875" customWidth="1"/>
@@ -26467,10 +27141,10 @@
       <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="41" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -26517,13 +27191,13 @@
       <c r="B2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="40">
         <v>4</v>
       </c>
       <c r="F2" s="9">
@@ -26570,7 +27244,7 @@
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -26623,7 +27297,7 @@
       <c r="B4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -27146,7 +27820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
@@ -29437,9 +30111,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29557,19 +30234,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58A0654-065F-47DB-AC44-1379E2857CD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E41200-42EE-46AA-8619-D533BD62EC98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29591,9 +30264,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E41200-42EE-46AA-8619-D533BD62EC98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58A0654-065F-47DB-AC44-1379E2857CD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>